--- a/biology/Médecine/Abderrahmane_Benbouzid/Abderrahmane_Benbouzid.xlsx
+++ b/biology/Médecine/Abderrahmane_Benbouzid/Abderrahmane_Benbouzid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Abderrahmane Benbouzid (en arabe : عبد الرحمان بن بوزيد), né le 1er juin 1950 à Ouled Djellal, est un médecin et un homme politique algérien. Il est le ministre de la Santé d'Algérie du 4 janvier 2020[1] au 8 septembre 2022..
+Abderrahmane Benbouzid (en arabe : عبد الرحمان بن بوزيد), né le 1er juin 1950 à Ouled Djellal, est un médecin et un homme politique algérien. Il est le ministre de la Santé d'Algérie du 4 janvier 2020 au 8 septembre 2022..
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirurgien orthopédiste de formation, il a occupé le post de chef de service d'orthopédie et de traumatologie à l'EHS "Pr Abdelkader Boukhroufa" de Ben Aknoun. 
-Le 4 janvier 2020, il prend ses fonctions de ministre de la Santé, de la Population et de la Réforme hospitalière, en remplacement de Mohamed Miraoui[2]. Il quitte son poste le 8 septembre 2022[3].
+Le 4 janvier 2020, il prend ses fonctions de ministre de la Santé, de la Population et de la Réforme hospitalière, en remplacement de Mohamed Miraoui. Il quitte son poste le 8 septembre 2022.
 </t>
         </is>
       </c>
